--- a/nhis_announcement.xlsx
+++ b/nhis_announcement.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G16"/>
+  <dimension ref="A1:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -476,22 +476,26 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[공지]  SKT PASS 인증 및 휴대폰 본인확인 서비스 일시중단 안내(5.23. 2:00~5:00)</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr"/>
+          <t>[공지]  2023년 상반기 4대 사회보험 자동이체 경품행사 당첨자 발표</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>첨부파일  첨부파일  당첨자 400명 명단.xlsx  첨부파일 목록 닫기</t>
+        </is>
+      </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>고객지원실</t>
+          <t>수납정산4팀</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>2023.05.18</t>
+          <t>2023.05.26</t>
         </is>
       </c>
       <c r="G2" t="n">
-        <v>173</v>
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -505,26 +509,26 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[공지]  2023년 건강보험 해외판로 지원사업 참여기업 모집</t>
+          <t>[공지]  2023년 6월 요양급여비용 지급예정일 안내</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>첨부파일  첨부파일  2023년 건강보험 해외판로 지원사업 참여기업 모집 공고문.pdf  붙임_건강보험 해외판로지원사업 신청서 일체.hwp  첨부파일 목록 닫기</t>
+          <t>첨부파일  첨부파일  2023년 6월 요양급여비 지급예정일 안내.hwp  첨부파일 목록 닫기</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>경영지원실</t>
+          <t>급여관리실</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>2023.05.11</t>
+          <t>2023.05.24</t>
         </is>
       </c>
       <c r="G3" t="n">
-        <v>414</v>
+        <v>131</v>
       </c>
     </row>
     <row r="4">
@@ -538,26 +542,26 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[공지]  「의과학분야 의대생 연구」 학생 공모 안내</t>
+          <t>[공지]  2023년 건강보험 해외판로 지원사업 참여기업 모집</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>첨부파일  첨부파일  의과학분야 의대생 연구 사업 학생 공모 계획(안).pdf  의과학분야 연구비 지원 사업 Q&amp;A(학생용).pdf  (양식1)_신청서_및_개인정보수집이용동의서.hwp  (양식2)_자기소개서_(수정양식).hwp  (양식3)_연구_학생_신청_정보.xlsx  (참고)_연구계획서(23.5.19.수정).pdf  첨부파일 목록 닫기</t>
+          <t>첨부파일  첨부파일  2023년 건강보험 해외판로 지원사업 참여기업 모집 공고문.pdf  붙임_건강보험 해외판로지원사업 신청서 일체.hwp  첨부파일 목록 닫기</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>보건의료자원실</t>
+          <t>경영지원실</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2023.05.09</t>
+          <t>2023.05.11</t>
         </is>
       </c>
       <c r="G4" t="n">
-        <v>2857</v>
+        <v>597</v>
       </c>
     </row>
     <row r="5">
@@ -571,12 +575,12 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[공지]  [특수·전문분야 의대생 실습 사업] 학생 공모 안내</t>
+          <t>[공지]  「의과학분야 의대생 연구」 학생 공모 안내</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>첨부파일  첨부파일  특수전문분야 의대생 실습사업 학생공모 안내.pdf  다빈도QnA.pdf  (제출양식1) 신청서 및 개인정보수집이용동의서_pdf 제출.hwp  (제출양식2) 자기소개서_pdf 제출.hwp  (제출양식3) 학생 신청 정보_엑셀 제출.xlsx  (참고) 실습기관별 세부내용(23.5.15. 수정).zip  첨부파일 목록 닫기</t>
+          <t>첨부파일  첨부파일  의과학분야 의대생 연구 사업 학생 공모 계획(안).pdf  의과학분야 연구비 지원 사업 Q&amp;A(학생용).pdf  (양식1)_신청서_및_개인정보수집이용동의서.hwp  (양식2)_자기소개서_(수정양식).hwp  (양식3)_연구_학생_신청_정보.xlsx  (참고)_연구계획서(23.5.24.수정).pdf  첨부파일 목록 닫기</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -590,7 +594,7 @@
         </is>
       </c>
       <c r="G5" t="n">
-        <v>2698</v>
+        <v>3485</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +608,26 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[공지]  검진기관 현황('23.3.31.기준)_출장검진기관 포함</t>
+          <t>[공지]  [특수·전문분야 의대생 실습 사업] 학생 공모 안내</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>첨부파일  첨부파일  검진기관_현황(2023.3.31.기준)_출장검진기관_포함.xlsx  첨부파일 목록 닫기</t>
+          <t>첨부파일  첨부파일  특수전문분야 의대생 실습사업 학생공모 안내.pdf  다빈도QnA.pdf  (제출양식1) 신청서 및 개인정보수집이용동의서_pdf 제출.hwp  (제출양식2) 자기소개서_pdf 제출.hwp  (제출양식3) 학생 신청 정보_엑셀 제출.xlsx  (참고) 실습기관별 세부내용(23.5.15. 수정).zip  첨부파일 목록 닫기</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>건강관리실</t>
+          <t>보건의료자원실</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>2020.11.03</t>
+          <t>2023.05.09</t>
         </is>
       </c>
       <c r="G6" t="n">
-        <v>202567</v>
+        <v>3799</v>
       </c>
     </row>
     <row r="7">
@@ -632,27 +636,31 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>533</t>
+          <t>공지</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>국민연금 납부확인서 발급 중단 안내</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr"/>
+          <t>[공지]  검진기관 현황('23.3.31.기준)_출장검진기관 포함</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>첨부파일  첨부파일  검진기관_현황(2023.3.31.기준)_출장검진기관_포함.xlsx  첨부파일 목록 닫기</t>
+        </is>
+      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>고객지원실</t>
+          <t>건강관리실</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>2023.05.16</t>
+          <t>2020.11.03</t>
         </is>
       </c>
       <c r="G7" t="n">
-        <v>318</v>
+        <v>203071</v>
       </c>
     </row>
     <row r="8">
@@ -661,31 +669,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>532</t>
+          <t>535</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>「신종 감염병 대비 긴급치료병상 확충 사업」시설 기준 변경 알림</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>첨부파일  첨부파일  (붙임1) 사업공고문.hwp  (붙임2) 긴급치료병상 확충기준.hwp  (붙임3) 국고지원금 신청 서식.hwp  (붙임4) 긴급치료병상 확충 관련 Q&amp;A.hwp  첨부파일 목록 닫기</t>
-        </is>
-      </c>
+          <t>2022년도 귀속 개인사업장 사용자 연말정산보험료 분할납부 10회 적용 안내</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr"/>
       <c r="E8" t="inlineStr">
         <is>
-          <t>안전관리실</t>
+          <t>자격부과실</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>2023.05.16</t>
+          <t>2023.05.25</t>
         </is>
       </c>
       <c r="G8" t="n">
-        <v>221</v>
+        <v>83</v>
       </c>
     </row>
     <row r="9">
@@ -694,12 +698,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>531</t>
+          <t>534</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>홈페이지 및 모바일앱 인증서비스 작업 안내(5.16. 18:00~20:30)</t>
+          <t>SKT PASS 인증 및 휴대폰 본인확인 서비스 일시중단 안내(5.23. 2:00~5:00)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr"/>
@@ -710,11 +714,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>2023.05.15</t>
+          <t>2023.05.18</t>
         </is>
       </c>
       <c r="G9" t="n">
-        <v>151</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10">
@@ -723,31 +727,27 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>533</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>건강iN 「건강기록과 건강예측으로 건강을 관리하세요!」 4월 이벤트 당첨자 발표</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>첨부파일  첨부파일  4월 리워드형 이벤트(건강예측) 당첨자 명단.pdf  첨부파일 목록 닫기</t>
-        </is>
-      </c>
+          <t>국민연금 납부확인서 발급 중단 안내</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
-          <t>빅데이터전략본부</t>
+          <t>고객지원실</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>2023.05.15</t>
+          <t>2023.05.16</t>
         </is>
       </c>
       <c r="G10" t="n">
-        <v>168</v>
+        <v>500</v>
       </c>
     </row>
     <row r="11">
@@ -756,31 +756,31 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>529</t>
+          <t>532</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[의과학분야 의대생 연구 사업] 수행기관 선정 결과 발표</t>
+          <t>「신종 감염병 대비 긴급치료병상 확충 사업」시설 기준 변경 알림</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>첨부파일  첨부파일  의과학분야 의대생 연구기관 선정결과.pdf  첨부파일 목록 닫기</t>
+          <t>첨부파일  첨부파일  (붙임1) 사업공고문.hwp  (붙임2) 긴급치료병상 확충기준.hwp  (붙임3) 국고지원금 신청 서식.hwp  (붙임4) 긴급치료병상 확충 관련 Q&amp;A.hwp  첨부파일 목록 닫기</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>보건의료자원실</t>
+          <t>안전관리실</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>2023.05.12</t>
+          <t>2023.05.16</t>
         </is>
       </c>
       <c r="G11" t="n">
-        <v>856</v>
+        <v>289</v>
       </c>
     </row>
     <row r="12">
@@ -789,27 +789,27 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>528</t>
+          <t>531</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[필수·공공·지역의료 의대생 실습 사업] 수행기관 선정 결과 발표</t>
+          <t>홈페이지 및 모바일앱 인증서비스 작업 안내(5.16. 18:00~20:30)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
-          <t>보건의료자원실</t>
+          <t>고객지원실</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2023.05.12</t>
+          <t>2023.05.15</t>
         </is>
       </c>
       <c r="G12" t="n">
-        <v>804</v>
+        <v>189</v>
       </c>
     </row>
     <row r="13">
@@ -818,31 +818,31 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>527</t>
+          <t>530</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>개인정보 목적 외 이용 및 제공 내역(2023.4.15.~2023.4.30.)</t>
+          <t>건강iN 「건강기록과 건강예측으로 건강을 관리하세요!」 4월 이벤트 당첨자 발표</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>첨부파일  첨부파일  붙임 개인정보 목적외 이용 및 제공 내역(230415-230430)_홈페이지 게시용.pdf  첨부파일 목록 닫기</t>
+          <t>첨부파일  첨부파일  4월 리워드형 이벤트(건강예측) 당첨자 명단.pdf  첨부파일 목록 닫기</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>법무지원실</t>
+          <t>빅데이터전략본부</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2023.05.12</t>
+          <t>2023.05.15</t>
         </is>
       </c>
       <c r="G13" t="n">
-        <v>75</v>
+        <v>245</v>
       </c>
     </row>
     <row r="14">
@@ -851,31 +851,31 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>526</t>
+          <t>529</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>「신종 감염병 대비 긴급치료병상 확충 사업」신청 안내(신청기간 연장)</t>
+          <t>[의과학분야 의대생 연구 사업] 수행기관 선정 결과 발표</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>첨부파일  첨부파일  (붙임1) 사업공고문.hwp  (붙임2) 긴급치료병상 확충 기준.hwp  (붙임3) 국고지원금 신청 서식.hwp  (붙임4) 긴급치료병상 확충 관련 Q&amp;A.hwp  첨부파일 목록 닫기</t>
+          <t>첨부파일  첨부파일  의과학분야 의대생 연구기관 선정결과.pdf  첨부파일 목록 닫기</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>안전관리실</t>
+          <t>보건의료자원실</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2023.05.11</t>
+          <t>2023.05.12</t>
         </is>
       </c>
       <c r="G14" t="n">
-        <v>275</v>
+        <v>944</v>
       </c>
     </row>
     <row r="15">
@@ -884,31 +884,27 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>525</t>
+          <t>528</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>인공호흡기 등 식약처 ‘회수계획 승인 및 공표 등 명령’ 알림사항 안내</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>첨부파일  첨부파일  붙임 홈페이지 게시 안내문.pdf  첨부파일 목록 닫기</t>
-        </is>
-      </c>
+          <t>[필수·공공·지역의료 의대생 실습 사업] 수행기관 선정 결과 발표</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
-          <t>급여관리실</t>
+          <t>보건의료자원실</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>2023.05.10</t>
+          <t>2023.05.12</t>
         </is>
       </c>
       <c r="G15" t="n">
-        <v>5575</v>
+        <v>912</v>
       </c>
     </row>
     <row r="16">
@@ -917,15 +913,19 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>524</t>
+          <t>527</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>국민건강보험공단 사칭 문자(스미싱) “주의” 안내</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr"/>
+          <t>개인정보 목적 외 이용 및 제공 내역(2023.4.15.~2023.4.30.)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>첨부파일  첨부파일  붙임 개인정보 목적외 이용 및 제공 내역(230415-230430)_홈페이지 게시용.pdf  첨부파일 목록 닫기</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>법무지원실</t>
@@ -933,11 +933,44 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>2023.05.04</t>
+          <t>2023.05.12</t>
         </is>
       </c>
       <c r="G16" t="n">
-        <v>373</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>526</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>「신종 감염병 대비 긴급치료병상 확충 사업」신청 안내(신청기간 연장)</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>첨부파일  첨부파일  (붙임1) 사업공고문.hwp  (붙임2) 긴급치료병상 확충 기준.hwp  (붙임3) 국고지원금 신청 서식.hwp  (붙임4) 긴급치료병상 확충 관련 Q&amp;A.hwp  첨부파일 목록 닫기</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>안전관리실</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2023.05.11</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
+        <v>311</v>
       </c>
     </row>
   </sheetData>
